--- a/data/MSTAA_data/rate.xlsx
+++ b/data/MSTAA_data/rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\folio\data\MSTAA_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E79E32-5688-4587-9DB4-4C1FED78169E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93ECA45-C14A-4D67-B27A-97347958B2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B83890-34BF-4E00-9243-7D871E1E0E3B}"/>
   </bookViews>
@@ -61,33 +61,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="12">
   <si>
-    <t>指标名称</t>
-  </si>
-  <si>
-    <t>贷款市场报价利率(LPR):1年</t>
-  </si>
-  <si>
-    <t>LPR1Y0/N(已停)</t>
-  </si>
-  <si>
-    <t>R1Y</t>
-  </si>
-  <si>
-    <t>短期贷款利率:6个月至1年(含)</t>
-  </si>
-  <si>
-    <t>频率</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>rate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -96,6 +69,42 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款市场报价利率(LPR):1年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPR1Y0/N(已停)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期贷款利率:6个月至1年(含)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -542,7 +551,7 @@
         <v>36657</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -550,7 +559,7 @@
         <v>36703</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -558,7 +567,7 @@
         <v>36705</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -566,7 +575,7 @@
         <v>36710</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -574,7 +583,7 @@
         <v>36861</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -582,7 +591,7 @@
         <v>37005</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -590,7 +599,7 @@
         <v>37243</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -606,7 +615,7 @@
         <v>37412</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -614,7 +623,7 @@
         <v>38055</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -622,7 +631,7 @@
         <v>38057</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -630,7 +639,7 @@
         <v>38118</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -638,7 +647,7 @@
         <v>38139</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -646,7 +655,7 @@
         <v>38202</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -662,7 +671,7 @@
         <v>38364</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,7 +687,7 @@
         <v>38456</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -686,7 +695,7 @@
         <v>38457</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,7 +703,7 @@
         <v>38496</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -702,7 +711,7 @@
         <v>38502</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,7 +719,7 @@
         <v>38518</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -718,7 +727,7 @@
         <v>38523</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -726,7 +735,7 @@
         <v>38524</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -734,7 +743,7 @@
         <v>38525</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,7 +751,7 @@
         <v>38560</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -750,7 +759,7 @@
         <v>38561</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,7 +767,7 @@
         <v>38562</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -766,7 +775,7 @@
         <v>38658</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -774,7 +783,7 @@
         <v>38660</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -782,7 +791,7 @@
         <v>38664</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -790,7 +799,7 @@
         <v>38729</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -798,7 +807,7 @@
         <v>38733</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -806,7 +815,7 @@
         <v>38757</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,7 +823,7 @@
         <v>38764</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,7 +831,7 @@
         <v>38804</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -830,7 +839,7 @@
         <v>38832</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -846,7 +855,7 @@
         <v>38912</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -862,7 +871,7 @@
         <v>39041</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -870,7 +879,7 @@
         <v>39076</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -878,7 +887,7 @@
         <v>39077</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -886,7 +895,7 @@
         <v>39081</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -894,7 +903,7 @@
         <v>39092</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -902,7 +911,7 @@
         <v>39093</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -910,7 +919,7 @@
         <v>39097</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -918,7 +927,7 @@
         <v>39098</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -926,7 +935,7 @@
         <v>39099</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -934,7 +943,7 @@
         <v>39104</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -942,7 +951,7 @@
         <v>39105</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -950,7 +959,7 @@
         <v>39106</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -958,7 +967,7 @@
         <v>39107</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -966,7 +975,7 @@
         <v>39118</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -974,7 +983,7 @@
         <v>39120</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -982,7 +991,7 @@
         <v>39122</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -990,7 +999,7 @@
         <v>39139</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1014,7 +1023,7 @@
         <v>39262</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,7 +1031,7 @@
         <v>39274</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,7 +1071,7 @@
         <v>39483</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1070,7 +1079,7 @@
         <v>39497</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1078,7 +1087,7 @@
         <v>39498</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1086,7 +1095,7 @@
         <v>39504</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1094,7 +1103,7 @@
         <v>39505</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1102,7 +1111,7 @@
         <v>39506</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1110,7 +1119,7 @@
         <v>39507</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1118,7 +1127,7 @@
         <v>39510</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,7 +1135,7 @@
         <v>39511</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1134,7 +1143,7 @@
         <v>39512</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,7 +1151,7 @@
         <v>39513</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1150,7 +1159,7 @@
         <v>39514</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1167,7 @@
         <v>39517</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1175,7 @@
         <v>39518</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1174,7 +1183,7 @@
         <v>39519</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1182,7 +1191,7 @@
         <v>39520</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1190,7 +1199,7 @@
         <v>39521</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1198,7 +1207,7 @@
         <v>39524</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1206,7 +1215,7 @@
         <v>39525</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1214,7 +1223,7 @@
         <v>39526</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1222,7 +1231,7 @@
         <v>39527</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1230,7 +1239,7 @@
         <v>39528</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,7 +1247,7 @@
         <v>39531</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,7 +1255,7 @@
         <v>39532</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,7 +1263,7 @@
         <v>39533</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,7 +1271,7 @@
         <v>39534</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1270,7 +1279,7 @@
         <v>39535</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1278,7 +1287,7 @@
         <v>39538</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1286,7 +1295,7 @@
         <v>39539</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1294,7 +1303,7 @@
         <v>39541</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,7 +1311,7 @@
         <v>39545</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1310,7 +1319,7 @@
         <v>39546</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,7 +1327,7 @@
         <v>39547</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1326,7 +1335,7 @@
         <v>39548</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1334,7 +1343,7 @@
         <v>39549</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1342,7 +1351,7 @@
         <v>39552</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1350,7 +1359,7 @@
         <v>39553</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1358,7 +1367,7 @@
         <v>39554</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1366,7 +1375,7 @@
         <v>39555</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1374,7 +1383,7 @@
         <v>39556</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1382,7 +1391,7 @@
         <v>39559</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1390,7 +1399,7 @@
         <v>39560</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1398,7 +1407,7 @@
         <v>39561</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1406,7 +1415,7 @@
         <v>39562</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1414,7 +1423,7 @@
         <v>39563</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1422,7 +1431,7 @@
         <v>39566</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1430,7 +1439,7 @@
         <v>39567</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1438,7 +1447,7 @@
         <v>39568</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1446,7 +1455,7 @@
         <v>39572</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1454,7 +1463,7 @@
         <v>39573</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1462,7 +1471,7 @@
         <v>39574</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1470,7 +1479,7 @@
         <v>39575</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,7 +1487,7 @@
         <v>39576</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1486,7 +1495,7 @@
         <v>39577</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1494,7 +1503,7 @@
         <v>39580</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1502,7 +1511,7 @@
         <v>39581</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1510,7 +1519,7 @@
         <v>39582</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1518,7 +1527,7 @@
         <v>39583</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,7 +1535,7 @@
         <v>39596</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,7 +1543,7 @@
         <v>39603</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1542,7 +1551,7 @@
         <v>39604</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1550,7 +1559,7 @@
         <v>39610</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1558,7 +1567,7 @@
         <v>39612</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1566,7 +1575,7 @@
         <v>39619</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1574,7 +1583,7 @@
         <v>39629</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1582,7 +1591,7 @@
         <v>39632</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1590,7 +1599,7 @@
         <v>39658</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,7 +1607,7 @@
         <v>39659</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1606,7 +1615,7 @@
         <v>39660</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1614,7 +1623,7 @@
         <v>39661</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1622,7 +1631,7 @@
         <v>39664</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -1630,7 +1639,7 @@
         <v>39665</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -1638,7 +1647,7 @@
         <v>39666</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -1646,7 +1655,7 @@
         <v>39667</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -1654,7 +1663,7 @@
         <v>39668</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -1662,7 +1671,7 @@
         <v>39671</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,7 +1679,7 @@
         <v>39672</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -1678,7 +1687,7 @@
         <v>39673</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -1686,7 +1695,7 @@
         <v>39674</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -1694,7 +1703,7 @@
         <v>39675</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -1702,7 +1711,7 @@
         <v>39678</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -1710,7 +1719,7 @@
         <v>39679</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1727,7 @@
         <v>39680</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -1726,7 +1735,7 @@
         <v>39681</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -1734,7 +1743,7 @@
         <v>39682</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -1742,7 +1751,7 @@
         <v>39685</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -1750,7 +1759,7 @@
         <v>39686</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -1758,7 +1767,7 @@
         <v>39687</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -1766,7 +1775,7 @@
         <v>39688</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -1774,7 +1783,7 @@
         <v>39689</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -1782,7 +1791,7 @@
         <v>39692</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -1790,7 +1799,7 @@
         <v>39693</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -1798,7 +1807,7 @@
         <v>39694</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -1806,7 +1815,7 @@
         <v>39695</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -1814,7 +1823,7 @@
         <v>39696</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -1822,7 +1831,7 @@
         <v>39699</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -1830,7 +1839,7 @@
         <v>39700</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -1838,7 +1847,7 @@
         <v>39701</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -1846,7 +1855,7 @@
         <v>39702</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -1854,7 +1863,7 @@
         <v>39703</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -1870,7 +1879,7 @@
         <v>39708</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -1878,7 +1887,7 @@
         <v>39709</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -1886,7 +1895,7 @@
         <v>39710</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -1894,7 +1903,7 @@
         <v>39714</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -1902,7 +1911,7 @@
         <v>39715</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -1910,7 +1919,7 @@
         <v>39716</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -1918,7 +1927,7 @@
         <v>39717</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -1926,7 +1935,7 @@
         <v>39719</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -1934,7 +1943,7 @@
         <v>39727</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -1942,7 +1951,7 @@
         <v>39728</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -1950,7 +1959,7 @@
         <v>39729</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -1966,7 +1975,7 @@
         <v>39731</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -1974,7 +1983,7 @@
         <v>39734</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -1982,7 +1991,7 @@
         <v>39735</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -1990,7 +1999,7 @@
         <v>39736</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -1998,7 +2007,7 @@
         <v>39737</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2006,7 +2015,7 @@
         <v>39738</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2014,7 +2023,7 @@
         <v>39741</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2022,7 +2031,7 @@
         <v>39742</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2030,7 +2039,7 @@
         <v>39743</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2038,7 +2047,7 @@
         <v>39744</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2046,7 +2055,7 @@
         <v>39745</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2062,7 +2071,7 @@
         <v>39749</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2070,7 +2079,7 @@
         <v>39750</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2086,7 +2095,7 @@
         <v>39752</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2094,7 +2103,7 @@
         <v>39755</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2102,7 +2111,7 @@
         <v>39756</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2110,7 +2119,7 @@
         <v>39757</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2118,7 +2127,7 @@
         <v>39758</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2126,7 +2135,7 @@
         <v>39759</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2134,7 +2143,7 @@
         <v>39762</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -2142,7 +2151,7 @@
         <v>39763</v>
       </c>
       <c r="B203" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -2150,7 +2159,7 @@
         <v>39764</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -2158,7 +2167,7 @@
         <v>39765</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -2166,7 +2175,7 @@
         <v>39766</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -2174,7 +2183,7 @@
         <v>39769</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -2182,7 +2191,7 @@
         <v>39770</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -2190,7 +2199,7 @@
         <v>39771</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -2198,7 +2207,7 @@
         <v>39772</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -2206,7 +2215,7 @@
         <v>39773</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -2214,7 +2223,7 @@
         <v>39776</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -2238,7 +2247,7 @@
         <v>39867</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -2246,7 +2255,7 @@
         <v>39875</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -2254,7 +2263,7 @@
         <v>39973</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -2262,7 +2271,7 @@
         <v>39980</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -2270,7 +2279,7 @@
         <v>39982</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -2278,7 +2287,7 @@
         <v>39983</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -2286,7 +2295,7 @@
         <v>39987</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -2294,7 +2303,7 @@
         <v>39989</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -2302,7 +2311,7 @@
         <v>39994</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -2310,7 +2319,7 @@
         <v>40008</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -2318,7 +2327,7 @@
         <v>40015</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -2326,7 +2335,7 @@
         <v>40022</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -2334,7 +2343,7 @@
         <v>40023</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -2342,7 +2351,7 @@
         <v>40025</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -2350,7 +2359,7 @@
         <v>40029</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -2358,7 +2367,7 @@
         <v>40032</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -2366,7 +2375,7 @@
         <v>40039</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -2374,7 +2383,7 @@
         <v>40042</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -2382,7 +2391,7 @@
         <v>40045</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -2390,7 +2399,7 @@
         <v>40046</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -2398,7 +2407,7 @@
         <v>40051</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -2406,7 +2415,7 @@
         <v>40053</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -2414,7 +2423,7 @@
         <v>40056</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -2422,7 +2431,7 @@
         <v>40059</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -2430,7 +2439,7 @@
         <v>40099</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -2438,7 +2447,7 @@
         <v>40100</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -2446,7 +2455,7 @@
         <v>40106</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -2454,7 +2463,7 @@
         <v>40108</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -2462,7 +2471,7 @@
         <v>40135</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -2470,7 +2479,7 @@
         <v>40184</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -2478,7 +2487,7 @@
         <v>40230</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -2486,7 +2495,7 @@
         <v>40231</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -2494,7 +2503,7 @@
         <v>40268</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -2502,7 +2511,7 @@
         <v>40282</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -2510,7 +2519,7 @@
         <v>40352</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -2518,7 +2527,7 @@
         <v>40375</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -2526,7 +2535,7 @@
         <v>40401</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -2534,7 +2543,7 @@
         <v>40407</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -2542,7 +2551,7 @@
         <v>40413</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -2550,7 +2559,7 @@
         <v>40415</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -2566,7 +2575,7 @@
         <v>40480</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -2574,7 +2583,7 @@
         <v>40518</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -2582,7 +2591,7 @@
         <v>40535</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -2598,7 +2607,7 @@
         <v>40556</v>
       </c>
       <c r="B260" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -2606,7 +2615,7 @@
         <v>40557</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -2614,7 +2623,7 @@
         <v>40563</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -2638,7 +2647,7 @@
         <v>40709</v>
       </c>
       <c r="B265" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -2646,7 +2655,7 @@
         <v>40728</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -2654,7 +2663,7 @@
         <v>40730</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -2670,7 +2679,7 @@
         <v>40739</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -2678,7 +2687,7 @@
         <v>40744</v>
       </c>
       <c r="B270" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -2686,7 +2695,7 @@
         <v>40759</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -2694,7 +2703,7 @@
         <v>40765</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -2702,7 +2711,7 @@
         <v>40767</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -2710,7 +2719,7 @@
         <v>40770</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -2718,7 +2727,7 @@
         <v>40773</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -2726,7 +2735,7 @@
         <v>40774</v>
       </c>
       <c r="B276" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -2734,7 +2743,7 @@
         <v>40788</v>
       </c>
       <c r="B277" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -2742,7 +2751,7 @@
         <v>40793</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -2750,7 +2759,7 @@
         <v>40800</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -2758,7 +2767,7 @@
         <v>40801</v>
       </c>
       <c r="B280" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -2766,7 +2775,7 @@
         <v>40802</v>
       </c>
       <c r="B281" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -2774,7 +2783,7 @@
         <v>40809</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -2782,7 +2791,7 @@
         <v>40812</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -2790,7 +2799,7 @@
         <v>40813</v>
       </c>
       <c r="B284" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -2798,7 +2807,7 @@
         <v>40827</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -2806,7 +2815,7 @@
         <v>40828</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -2814,7 +2823,7 @@
         <v>40830</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -2822,7 +2831,7 @@
         <v>40834</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -2830,7 +2839,7 @@
         <v>40837</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -2838,7 +2847,7 @@
         <v>40840</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -2846,7 +2855,7 @@
         <v>40848</v>
       </c>
       <c r="B291" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -2854,7 +2863,7 @@
         <v>40849</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -2862,7 +2871,7 @@
         <v>40864</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -2870,7 +2879,7 @@
         <v>40865</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -2878,7 +2887,7 @@
         <v>40869</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -2886,7 +2895,7 @@
         <v>40870</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -2894,7 +2903,7 @@
         <v>40875</v>
       </c>
       <c r="B297" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -2902,7 +2911,7 @@
         <v>40876</v>
       </c>
       <c r="B298" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -2910,7 +2919,7 @@
         <v>40889</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -2918,7 +2927,7 @@
         <v>40890</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -2926,7 +2935,7 @@
         <v>40891</v>
       </c>
       <c r="B301" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -2934,7 +2943,7 @@
         <v>40893</v>
       </c>
       <c r="B302" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -2942,7 +2951,7 @@
         <v>40897</v>
       </c>
       <c r="B303" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -2950,7 +2959,7 @@
         <v>40899</v>
       </c>
       <c r="B304" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -2958,7 +2967,7 @@
         <v>40903</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -2966,7 +2975,7 @@
         <v>40914</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -2974,7 +2983,7 @@
         <v>40967</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -2982,7 +2991,7 @@
         <v>40970</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -2990,7 +2999,7 @@
         <v>40973</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -2998,7 +3007,7 @@
         <v>40991</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -3006,7 +3015,7 @@
         <v>41008</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -3014,7 +3023,7 @@
         <v>41024</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -3022,7 +3031,7 @@
         <v>41025</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -3046,7 +3055,7 @@
         <v>41123</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -3054,7 +3063,7 @@
         <v>41157</v>
       </c>
       <c r="B317" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -3062,7 +3071,7 @@
         <v>41191</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -3070,7 +3079,7 @@
         <v>41201</v>
       </c>
       <c r="B319" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -3078,7 +3087,7 @@
         <v>41207</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -3086,7 +3095,7 @@
         <v>41226</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -3094,7 +3103,7 @@
         <v>41228</v>
       </c>
       <c r="B322" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -3102,7 +3111,7 @@
         <v>41234</v>
       </c>
       <c r="B323" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -3110,7 +3119,7 @@
         <v>41250</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -3118,7 +3127,7 @@
         <v>41257</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -3126,7 +3135,7 @@
         <v>41260</v>
       </c>
       <c r="B326" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -3134,7 +3143,7 @@
         <v>41261</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -3142,7 +3151,7 @@
         <v>41263</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -3150,7 +3159,7 @@
         <v>41264</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -3158,7 +3167,7 @@
         <v>41267</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -3166,7 +3175,7 @@
         <v>41270</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -3174,7 +3183,7 @@
         <v>41271</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -3182,7 +3191,7 @@
         <v>41325</v>
       </c>
       <c r="B333" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -3190,7 +3199,7 @@
         <v>41351</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -3198,7 +3207,7 @@
         <v>41352</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -3206,7 +3215,7 @@
         <v>41366</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -3214,7 +3223,7 @@
         <v>41367</v>
       </c>
       <c r="B337" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -3222,7 +3231,7 @@
         <v>41374</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -3230,7 +3239,7 @@
         <v>41379</v>
       </c>
       <c r="B339" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -3238,7 +3247,7 @@
         <v>41380</v>
       </c>
       <c r="B340" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -3246,7 +3255,7 @@
         <v>41383</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -3254,7 +3263,7 @@
         <v>41386</v>
       </c>
       <c r="B342" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -3262,7 +3271,7 @@
         <v>41387</v>
       </c>
       <c r="B343" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -3270,7 +3279,7 @@
         <v>41429</v>
       </c>
       <c r="B344" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -3278,7 +3287,7 @@
         <v>41445</v>
       </c>
       <c r="B345" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -3286,7 +3295,7 @@
         <v>41449</v>
       </c>
       <c r="B346" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -3294,7 +3303,7 @@
         <v>41460</v>
       </c>
       <c r="B347" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -3302,7 +3311,7 @@
         <v>41463</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -3310,7 +3319,7 @@
         <v>41466</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -3318,7 +3327,7 @@
         <v>41467</v>
       </c>
       <c r="B350" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -3326,7 +3335,7 @@
         <v>41470</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -3334,7 +3343,7 @@
         <v>41472</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -3342,7 +3351,7 @@
         <v>41473</v>
       </c>
       <c r="B353" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -3350,7 +3359,7 @@
         <v>41478</v>
       </c>
       <c r="B354" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -3358,7 +3367,7 @@
         <v>41479</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -3366,7 +3375,7 @@
         <v>41480</v>
       </c>
       <c r="B356" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -3374,7 +3383,7 @@
         <v>41481</v>
       </c>
       <c r="B357" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -3382,7 +3391,7 @@
         <v>41486</v>
       </c>
       <c r="B358" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -3390,7 +3399,7 @@
         <v>41491</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -3398,7 +3407,7 @@
         <v>41492</v>
       </c>
       <c r="B360" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -3406,7 +3415,7 @@
         <v>41493</v>
       </c>
       <c r="B361" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -3414,7 +3423,7 @@
         <v>41494</v>
       </c>
       <c r="B362" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -3422,7 +3431,7 @@
         <v>41500</v>
       </c>
       <c r="B363" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -3430,7 +3439,7 @@
         <v>41501</v>
       </c>
       <c r="B364" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -3438,7 +3447,7 @@
         <v>41502</v>
       </c>
       <c r="B365" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -3446,7 +3455,7 @@
         <v>41505</v>
       </c>
       <c r="B366" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -3454,7 +3463,7 @@
         <v>41508</v>
       </c>
       <c r="B367" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -3462,7 +3471,7 @@
         <v>41519</v>
       </c>
       <c r="B368" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -3470,7 +3479,7 @@
         <v>41534</v>
       </c>
       <c r="B369" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -3478,7 +3487,7 @@
         <v>41547</v>
       </c>
       <c r="B370" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -3486,7 +3495,7 @@
         <v>41555</v>
       </c>
       <c r="B371" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -3494,7 +3503,7 @@
         <v>41576</v>
       </c>
       <c r="B372" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -3502,7 +3511,7 @@
         <v>41584</v>
       </c>
       <c r="B373" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -3510,7 +3519,7 @@
         <v>41596</v>
       </c>
       <c r="B374" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -3518,7 +3527,7 @@
         <v>41597</v>
       </c>
       <c r="B375" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -3526,7 +3535,7 @@
         <v>41598</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -3534,7 +3543,7 @@
         <v>41599</v>
       </c>
       <c r="B377" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -3542,7 +3551,7 @@
         <v>41603</v>
       </c>
       <c r="B378" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -3550,7 +3559,7 @@
         <v>41604</v>
       </c>
       <c r="B379" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -3558,7 +3567,7 @@
         <v>41605</v>
       </c>
       <c r="B380" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -3566,7 +3575,7 @@
         <v>41606</v>
       </c>
       <c r="B381" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -3574,7 +3583,7 @@
         <v>41607</v>
       </c>
       <c r="B382" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -3582,7 +3591,7 @@
         <v>41612</v>
       </c>
       <c r="B383" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -3590,7 +3599,7 @@
         <v>41618</v>
       </c>
       <c r="B384" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -3598,7 +3607,7 @@
         <v>41619</v>
       </c>
       <c r="B385" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -3606,7 +3615,7 @@
         <v>41620</v>
       </c>
       <c r="B386" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -3614,7 +3623,7 @@
         <v>41626</v>
       </c>
       <c r="B387" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -3622,7 +3631,7 @@
         <v>41634</v>
       </c>
       <c r="B388" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -3630,7 +3639,7 @@
         <v>41635</v>
       </c>
       <c r="B389" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -3638,7 +3647,7 @@
         <v>41641</v>
       </c>
       <c r="B390" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -3646,7 +3655,7 @@
         <v>41642</v>
       </c>
       <c r="B391" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -3654,7 +3663,7 @@
         <v>41645</v>
       </c>
       <c r="B392" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -3662,7 +3671,7 @@
         <v>41653</v>
       </c>
       <c r="B393" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -3670,7 +3679,7 @@
         <v>41654</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -3678,7 +3687,7 @@
         <v>41655</v>
       </c>
       <c r="B395" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -3686,7 +3695,7 @@
         <v>41663</v>
       </c>
       <c r="B396" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -3694,7 +3703,7 @@
         <v>41665</v>
       </c>
       <c r="B397" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -3702,7 +3711,7 @@
         <v>41666</v>
       </c>
       <c r="B398" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -3710,7 +3719,7 @@
         <v>41667</v>
       </c>
       <c r="B399" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -3718,7 +3727,7 @@
         <v>41680</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -3726,7 +3735,7 @@
         <v>41681</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -3734,7 +3743,7 @@
         <v>41688</v>
       </c>
       <c r="B402" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -3742,7 +3751,7 @@
         <v>41690</v>
       </c>
       <c r="B403" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -14750,7 +14759,7 @@
         <v>43747</v>
       </c>
       <c r="B1779" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.2">
@@ -14758,7 +14767,7 @@
         <v>43752</v>
       </c>
       <c r="B1780" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.2">
@@ -14766,7 +14775,7 @@
         <v>43753</v>
       </c>
       <c r="B1781" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.2">
@@ -14782,7 +14791,7 @@
         <v>43784</v>
       </c>
       <c r="B1783" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.2">
@@ -14790,7 +14799,7 @@
         <v>43787</v>
       </c>
       <c r="B1784" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.2">
@@ -14806,7 +14815,7 @@
         <v>43797</v>
       </c>
       <c r="B1786" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1787" spans="1:2" x14ac:dyDescent="0.2">
@@ -14814,7 +14823,7 @@
         <v>43798</v>
       </c>
       <c r="B1787" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.2">
@@ -14822,7 +14831,7 @@
         <v>43803</v>
       </c>
       <c r="B1788" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1789" spans="1:2" x14ac:dyDescent="0.2">
@@ -14830,7 +14839,7 @@
         <v>43805</v>
       </c>
       <c r="B1789" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1790" spans="1:2" x14ac:dyDescent="0.2">
@@ -14838,7 +14847,7 @@
         <v>43816</v>
       </c>
       <c r="B1790" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.2">
@@ -14854,7 +14863,7 @@
         <v>43824</v>
       </c>
       <c r="B1792" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.2">
@@ -14862,7 +14871,7 @@
         <v>43838</v>
       </c>
       <c r="B1793" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.2">
@@ -14870,7 +14879,7 @@
         <v>43847</v>
       </c>
       <c r="B1794" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.2">
@@ -14886,7 +14895,7 @@
         <v>43864</v>
       </c>
       <c r="B1796" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1797" spans="1:2" x14ac:dyDescent="0.2">
@@ -14894,7 +14903,7 @@
         <v>43865</v>
       </c>
       <c r="B1797" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1798" spans="1:2" x14ac:dyDescent="0.2">
@@ -14902,7 +14911,7 @@
         <v>43875</v>
       </c>
       <c r="B1798" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.2">
@@ -14910,7 +14919,7 @@
         <v>43878</v>
       </c>
       <c r="B1799" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.2">
@@ -14918,7 +14927,7 @@
         <v>43879</v>
       </c>
       <c r="B1800" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.2">
@@ -14934,7 +14943,7 @@
         <v>43896</v>
       </c>
       <c r="B1802" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.2">
@@ -14942,7 +14951,7 @@
         <v>43900</v>
       </c>
       <c r="B1803" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.2">
@@ -14950,7 +14959,7 @@
         <v>43901</v>
       </c>
       <c r="B1804" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.2">
@@ -14958,7 +14967,7 @@
         <v>43906</v>
       </c>
       <c r="B1805" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.2">
@@ -14974,7 +14983,7 @@
         <v>43914</v>
       </c>
       <c r="B1807" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.2">
@@ -14982,7 +14991,7 @@
         <v>43923</v>
       </c>
       <c r="B1808" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.2">
@@ -14990,7 +14999,7 @@
         <v>43929</v>
       </c>
       <c r="B1809" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.2">
@@ -14998,7 +15007,7 @@
         <v>43930</v>
       </c>
       <c r="B1810" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.2">
@@ -15014,7 +15023,7 @@
         <v>43950</v>
       </c>
       <c r="B1812" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.2">
@@ -15022,7 +15031,7 @@
         <v>43958</v>
       </c>
       <c r="B1813" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.2">
@@ -15030,7 +15039,7 @@
         <v>43960</v>
       </c>
       <c r="B1814" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.2">
@@ -15038,7 +15047,7 @@
         <v>43962</v>
       </c>
       <c r="B1815" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.2">
@@ -15046,7 +15055,7 @@
         <v>43963</v>
       </c>
       <c r="B1816" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.2">
@@ -15054,7 +15063,7 @@
         <v>43964</v>
       </c>
       <c r="B1817" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.2">
@@ -15062,7 +15071,7 @@
         <v>43965</v>
       </c>
       <c r="B1818" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.2">
@@ -15070,7 +15079,7 @@
         <v>43966</v>
       </c>
       <c r="B1819" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.2">
@@ -15086,7 +15095,7 @@
         <v>43972</v>
       </c>
       <c r="B1821" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.2">
@@ -15094,7 +15103,7 @@
         <v>43985</v>
       </c>
       <c r="B1822" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.2">
@@ -15102,7 +15111,7 @@
         <v>43986</v>
       </c>
       <c r="B1823" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.2">
@@ -15110,7 +15119,7 @@
         <v>43987</v>
       </c>
       <c r="B1824" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.2">
@@ -15126,7 +15135,7 @@
         <v>44006</v>
       </c>
       <c r="B1826" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.2">
@@ -15134,7 +15143,7 @@
         <v>44013</v>
       </c>
       <c r="B1827" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.2">
@@ -15142,7 +15151,7 @@
         <v>44019</v>
       </c>
       <c r="B1828" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.2">
@@ -15166,7 +15175,7 @@
         <v>44082</v>
       </c>
       <c r="B1831" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.2">
@@ -15174,7 +15183,7 @@
         <v>44083</v>
       </c>
       <c r="B1832" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.2">
@@ -15198,7 +15207,7 @@
         <v>44127</v>
       </c>
       <c r="B1835" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.2">
@@ -15206,7 +15215,7 @@
         <v>44141</v>
       </c>
       <c r="B1836" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.2">
@@ -15222,7 +15231,7 @@
         <v>44162</v>
       </c>
       <c r="B1838" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.2">
@@ -15246,7 +15255,7 @@
         <v>44245</v>
       </c>
       <c r="B1841" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1842" spans="1:2" x14ac:dyDescent="0.2">
@@ -15270,7 +15279,7 @@
         <v>44281</v>
       </c>
       <c r="B1844" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.2">
@@ -15286,7 +15295,7 @@
         <v>44309</v>
       </c>
       <c r="B1846" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1847" spans="1:2" x14ac:dyDescent="0.2">
@@ -15294,7 +15303,7 @@
         <v>44333</v>
       </c>
       <c r="B1847" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1848" spans="1:2" x14ac:dyDescent="0.2">
@@ -15310,7 +15319,7 @@
         <v>44337</v>
       </c>
       <c r="B1849" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1850" spans="1:2" x14ac:dyDescent="0.2">
@@ -15318,7 +15327,7 @@
         <v>44350</v>
       </c>
       <c r="B1850" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1851" spans="1:2" x14ac:dyDescent="0.2">
@@ -15334,7 +15343,7 @@
         <v>44383</v>
       </c>
       <c r="B1852" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1853" spans="1:2" x14ac:dyDescent="0.2">
@@ -15350,7 +15359,7 @@
         <v>44405</v>
       </c>
       <c r="B1854" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1855" spans="1:2" x14ac:dyDescent="0.2">
@@ -15358,7 +15367,7 @@
         <v>44406</v>
       </c>
       <c r="B1855" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1856" spans="1:2" x14ac:dyDescent="0.2">
@@ -15366,7 +15375,7 @@
         <v>44414</v>
       </c>
       <c r="B1856" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1857" spans="1:2" x14ac:dyDescent="0.2">
@@ -15374,7 +15383,7 @@
         <v>44418</v>
       </c>
       <c r="B1857" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1858" spans="1:2" x14ac:dyDescent="0.2">
@@ -15390,7 +15399,7 @@
         <v>44440</v>
       </c>
       <c r="B1859" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1860" spans="1:2" x14ac:dyDescent="0.2">
@@ -15398,7 +15407,7 @@
         <v>44447</v>
       </c>
       <c r="B1860" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1861" spans="1:2" x14ac:dyDescent="0.2">
@@ -15406,7 +15415,7 @@
         <v>44454</v>
       </c>
       <c r="B1861" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1862" spans="1:2" x14ac:dyDescent="0.2">
@@ -15438,7 +15447,7 @@
         <v>44524</v>
       </c>
       <c r="B1865" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1866" spans="1:2" x14ac:dyDescent="0.2">
@@ -15446,7 +15455,7 @@
         <v>44530</v>
       </c>
       <c r="B1866" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1867" spans="1:2" x14ac:dyDescent="0.2">
@@ -15454,7 +15463,7 @@
         <v>44531</v>
       </c>
       <c r="B1867" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1868" spans="1:2" x14ac:dyDescent="0.2">
@@ -15462,7 +15471,7 @@
         <v>44532</v>
       </c>
       <c r="B1868" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1869" spans="1:2" x14ac:dyDescent="0.2">
@@ -15470,7 +15479,7 @@
         <v>44537</v>
       </c>
       <c r="B1869" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1870" spans="1:2" x14ac:dyDescent="0.2">
@@ -15478,7 +15487,7 @@
         <v>44538</v>
       </c>
       <c r="B1870" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1871" spans="1:2" x14ac:dyDescent="0.2">
@@ -15494,7 +15503,7 @@
         <v>44552</v>
       </c>
       <c r="B1872" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1873" spans="1:2" x14ac:dyDescent="0.2">
@@ -15502,7 +15511,7 @@
         <v>44565</v>
       </c>
       <c r="B1873" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1874" spans="1:2" x14ac:dyDescent="0.2">
@@ -15526,7 +15535,7 @@
         <v>44614</v>
       </c>
       <c r="B1876" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1877" spans="1:2" x14ac:dyDescent="0.2">
@@ -15534,7 +15543,7 @@
         <v>44616</v>
       </c>
       <c r="B1877" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1878" spans="1:2" x14ac:dyDescent="0.2">
@@ -15542,7 +15551,7 @@
         <v>44629</v>
       </c>
       <c r="B1878" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1879" spans="1:2" x14ac:dyDescent="0.2">
@@ -15550,7 +15559,7 @@
         <v>44630</v>
       </c>
       <c r="B1879" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1880" spans="1:2" x14ac:dyDescent="0.2">
@@ -15558,7 +15567,7 @@
         <v>44631</v>
       </c>
       <c r="B1880" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1881" spans="1:2" x14ac:dyDescent="0.2">
@@ -15574,7 +15583,7 @@
         <v>44666</v>
       </c>
       <c r="B1882" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1883" spans="1:2" x14ac:dyDescent="0.2">
@@ -15582,7 +15591,7 @@
         <v>44669</v>
       </c>
       <c r="B1883" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1884" spans="1:2" x14ac:dyDescent="0.2">
@@ -15598,7 +15607,7 @@
         <v>44673</v>
       </c>
       <c r="B1885" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1886" spans="1:2" x14ac:dyDescent="0.2">
@@ -15606,7 +15615,7 @@
         <v>44675</v>
       </c>
       <c r="B1886" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1887" spans="1:2" x14ac:dyDescent="0.2">
@@ -15614,7 +15623,7 @@
         <v>44676</v>
       </c>
       <c r="B1887" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1888" spans="1:2" x14ac:dyDescent="0.2">
@@ -15622,7 +15631,7 @@
         <v>44678</v>
       </c>
       <c r="B1888" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15661,65 +15670,65 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
